--- a/psychopy/demos/builder/Design Templates/branchedExperiment/trialTypes.xlsx
+++ b/psychopy/demos/builder/Design Templates/branchedExperiment/trialTypes.xlsx
@@ -1,62 +1,163 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Drive\Throwaway\PsychoPy3 Demos\Design Templates\branchedExperiment\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC5D5CB3-5775-4057-89B5-9A37B896E52D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="47200" windowHeight="26040" tabRatio="500"/>
+    <workbookView xWindow="34395" yWindow="1530" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="130407" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:ArchID Flags="2"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Work</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri Light"/>
+            <family val="2"/>
+            <scheme val="major"/>
+          </rPr>
+          <t xml:space="preserve">Name
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri Light"/>
+            <family val="2"/>
+            <scheme val="major"/>
+          </rPr>
+          <t>A variable with this name will be created in PsychoPy, its value at any given time will be one of the cells below.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{E5458DB3-6A1D-4BE3-8E91-52D53E0F1609}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri Light"/>
+            <family val="2"/>
+            <scheme val="major"/>
+          </rPr>
+          <t xml:space="preserve">Values
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri Light"/>
+            <family val="2"/>
+            <scheme val="major"/>
+          </rPr>
+          <t>Each iteration of this loop, a different one of these values will be chosen. This will be the value of the variable named above.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
+    <t>letterColor</t>
+  </si>
+  <si>
     <t>red</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>green</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>blue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>letterColor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
     <font>
       <sz val="10"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Verdana"/>
+      <color indexed="81"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2545B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -71,14 +172,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF2545B"/>
+      <color rgb="FF66666E"/>
+      <color rgb="FF02A9EA"/>
+    </mruColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -93,44 +216,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -157,14 +280,32 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -191,6 +332,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -202,240 +361,183 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" style="1"/>
+    <col min="4" max="16384" width="20.7109375" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>